--- a/medicine/Autisme/AFG_autisme/AFG_autisme.xlsx
+++ b/medicine/Autisme/AFG_autisme/AFG_autisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">AFG autisme est une association française, gestionnaire d'établissements institutionnels médico-sociaux, spécialisée dans l'institutionnalisation des autistes. Créée en 2005 par André Masin, elle gère une trentaine d'établissements et services.
 </t>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-D'après le site web officiel, le sigle de AFG autisme se déploie sous cette appellation[2] : 
+D'après le site web officiel, le sigle de AFG autisme se déploie sous cette appellation : 
 « Association française de gestion de services et établissements pour personnes autistes. »
-Auparavant situé dans le 15e arrondissement de Paris[3], le siège se situe rue de la Vistule dans le 13e arrondissement de Paris.
-AFG Autisme est créée le 11 février 2005, dans l'objectif « d’une bonne gestion et d’une prise en charge adaptée des personnes autistes », et pour « professionnaliser » cette gestion d'établissements ; en 2018, d'après leur site web, AFG Autisme gère une trentaine d'établissements et services, dont une moitié transférées par des associations locales, dans l'objectif d'apporter "qualité de service et pérennité"[2].
+Auparavant situé dans le 15e arrondissement de Paris, le siège se situe rue de la Vistule dans le 13e arrondissement de Paris.
+AFG Autisme est créée le 11 février 2005, dans l'objectif « d’une bonne gestion et d’une prise en charge adaptée des personnes autistes », et pour « professionnaliser » cette gestion d'établissements ; en 2018, d'après leur site web, AFG Autisme gère une trentaine d'établissements et services, dont une moitié transférées par des associations locales, dans l'objectif d'apporter "qualité de service et pérennité".
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Présentation et organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association Française de Gestion des services et établissements pour personnes autistes présente un conseil d’administration composé de quatre membres professionnels et de huit membres issus des familles[4].
-Selon le registre français du social et médico-social, cet organisme gère, au niveau médico-social, quatre foyers d'accueil médicalisé (FAM), un centre d'activité de jour médicalisé (CAJM), une maison d'accueil spécialisé (MAS), deux services d'accompagnement médico-social pour adultes handicapés (SAMSAH), un établissement spécialisé d'aide par le travail (ESAT) et un foyer de vie, tous destinés à l'accueil des adultes ainsi que quatorze services d'éducation spéciale et de soins à domicile (SESSAD) et six instituts médico-éducatifs (IME), destinés à la prise en charge des enfants. L'association gère également un service d'accueil non médicalisé pour personnes handicapées (EANM) et trois établissements expérimentaux destinés à l'enfance handicapée[5].
-Selon un rapport d'audit publié en 2020 par le cabinet d'audit RSM, l'association gère 29 structures pour un total de 895 places, chaque établissement tenant sa propre comptabilité[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association Française de Gestion des services et établissements pour personnes autistes présente un conseil d’administration composé de quatre membres professionnels et de huit membres issus des familles.
+Selon le registre français du social et médico-social, cet organisme gère, au niveau médico-social, quatre foyers d'accueil médicalisé (FAM), un centre d'activité de jour médicalisé (CAJM), une maison d'accueil spécialisé (MAS), deux services d'accompagnement médico-social pour adultes handicapés (SAMSAH), un établissement spécialisé d'aide par le travail (ESAT) et un foyer de vie, tous destinés à l'accueil des adultes ainsi que quatorze services d'éducation spéciale et de soins à domicile (SESSAD) et six instituts médico-éducatifs (IME), destinés à la prise en charge des enfants. L'association gère également un service d'accueil non médicalisé pour personnes handicapées (EANM) et trois établissements expérimentaux destinés à l'enfance handicapée.
+Selon un rapport d'audit publié en 2020 par le cabinet d'audit RSM, l'association gère 29 structures pour un total de 895 places, chaque établissement tenant sa propre comptabilité.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En juillet 2018, André Masin signe une convention de partenariat avec le ministère des armées pour recruter des personnes autistes. 
 AFG Autisme soutient les projets innovants, et startup dans le domaine de l'autisme (Leka, Andibo, Helpicto...).[non neutre]
@@ -611,13 +629,15 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AFG autisme, originellement organe gestionnaire d'établissement pour Autisme France, a été accusée par AF de ne pas mettre en œuvre une politique conforme aux objectifs initiaux de prise en charge adaptée, et aussi d'un « manque de démocratie dans la gestion et l’évaluation des établissements qui lui ont été confiées », et d'un « manque de transparence dans la composition du Conseil d’administration »[7]. Hugo Horiot lui reproche son lobbying en faveur de l'institutionnalisation[8].
-En mars 2017, le premier adjoint au maire de Poissy, secrétaire général bénévole, est accusé de conflit d'intérêts alors qu’AFG Autisme réalisait une formation des employés de la municipalité à la prise en charge des personnes autistes[9].
-En décembre 2017, l'AFG est accusée de défaut de gestion au centre Alissa, à Aubry-du-Hainaut[10]. Ces problèmes, incluant 18 mois sans directeur, sont réglés un mois plus tard[11]., notamment avec l'embauche d'une nouvelle directrice[12]. En janvier 2018, Geneviève Mannarino, vice-présidente au conseil départemental en charge de l’autonomie déclare constater à l'occasion d'une visite dans l'établissement que « tout allait beaucoup mieux »[13].
-En mai 2018, des dysfonctionnements connus depuis 2014 dans le SESSAD Les premières classes, situé à Suresnes, font l'objet d'une question à l'Assemblée nationale[14].
-Dans son édition de l'été 2021, le magazine satirique Le Postillon, publié dans la région grenobloise, relate d'éventuels dysfonctionnements, en évoquant « une direction tyrannique [qui] pousse les soignants à la fuite » dans un établissement géré par cette association, une MAS située à Coublevie près de Voiron dans l'Isère[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AFG autisme, originellement organe gestionnaire d'établissement pour Autisme France, a été accusée par AF de ne pas mettre en œuvre une politique conforme aux objectifs initiaux de prise en charge adaptée, et aussi d'un « manque de démocratie dans la gestion et l’évaluation des établissements qui lui ont été confiées », et d'un « manque de transparence dans la composition du Conseil d’administration ». Hugo Horiot lui reproche son lobbying en faveur de l'institutionnalisation.
+En mars 2017, le premier adjoint au maire de Poissy, secrétaire général bénévole, est accusé de conflit d'intérêts alors qu’AFG Autisme réalisait une formation des employés de la municipalité à la prise en charge des personnes autistes.
+En décembre 2017, l'AFG est accusée de défaut de gestion au centre Alissa, à Aubry-du-Hainaut. Ces problèmes, incluant 18 mois sans directeur, sont réglés un mois plus tard., notamment avec l'embauche d'une nouvelle directrice. En janvier 2018, Geneviève Mannarino, vice-présidente au conseil départemental en charge de l’autonomie déclare constater à l'occasion d'une visite dans l'établissement que « tout allait beaucoup mieux ».
+En mai 2018, des dysfonctionnements connus depuis 2014 dans le SESSAD Les premières classes, situé à Suresnes, font l'objet d'une question à l'Assemblée nationale.
+Dans son édition de l'été 2021, le magazine satirique Le Postillon, publié dans la région grenobloise, relate d'éventuels dysfonctionnements, en évoquant « une direction tyrannique [qui] pousse les soignants à la fuite » dans un établissement géré par cette association, une MAS située à Coublevie près de Voiron dans l'Isère.
 </t>
         </is>
       </c>
